--- a/qa/EEJ1_test_cases.xlsx
+++ b/qa/EEJ1_test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30495" windowWidth="15330" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="34140" windowWidth="15330" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="ExecutionSummary" sheetId="8" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="797">
   <si>
     <t>Status</t>
   </si>
@@ -3824,9 +3824,6 @@
     <t>Node not getting stopped</t>
   </si>
   <si>
-    <t>US059</t>
-  </si>
-  <si>
     <t>Issue in Impetus-061 disk</t>
   </si>
   <si>
@@ -4056,6 +4053,9 @@
   </si>
   <si>
     <t>Sprint-06 Details (Cycle#1  and Cycle#2)</t>
+  </si>
+  <si>
+    <t>Triage</t>
   </si>
 </sst>
 </file>
@@ -4881,7 +4881,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -5217,97 +5217,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5352,18 +5261,6 @@
     <xf numFmtId="0" fontId="17" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5371,18 +5268,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5395,12 +5280,134 @@
     <xf numFmtId="0" fontId="17" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6518,11 +6525,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-197030368"/>
-        <c:axId val="-197029824"/>
+        <c:axId val="349866144"/>
+        <c:axId val="349852000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-197030368"/>
+        <c:axId val="349866144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6565,7 +6572,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-197029824"/>
+        <c:crossAx val="349852000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6573,7 +6580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-197029824"/>
+        <c:axId val="349852000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6624,7 +6631,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-197030368"/>
+        <c:crossAx val="349866144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6752,7 +6759,1290 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Sprint Wise Test Case Summary</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ExecutionSummary!$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#TCs Executed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>ExecutionSummary!$A$43:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Sprint 01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ExecutionSummary!$B$43:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ExecutionSummary!$C$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pass</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>ExecutionSummary!$A$43:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Sprint 01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ExecutionSummary!$C$43:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ExecutionSummary!$D$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fail</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:tint val="50000"/>
+                    <a:satMod val="300000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="35000">
+                  <a:schemeClr val="accent3">
+                    <a:tint val="37000"/>
+                    <a:satMod val="300000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:tint val="15000"/>
+                    <a:satMod val="350000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="1"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>ExecutionSummary!$A$43:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Sprint 01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ExecutionSummary!$D$43:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ExecutionSummary!$E$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fixed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:tint val="50000"/>
+                    <a:satMod val="300000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="35000">
+                  <a:schemeClr val="accent4">
+                    <a:tint val="37000"/>
+                    <a:satMod val="300000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:tint val="15000"/>
+                    <a:satMod val="350000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="1"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>ExecutionSummary!$A$43:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Sprint 01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ExecutionSummary!$E$43:$E$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ExecutionSummary!$F$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not Run</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>ExecutionSummary!$A$43:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Sprint 01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ExecutionSummary!$F$43:$F$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ExecutionSummary!$G$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># Total TCs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>ExecutionSummary!$A$43:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Sprint 01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ExecutionSummary!$G$43:$G$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>156</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="722043792"/>
+        <c:axId val="722044336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="722043792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="722044336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="722044336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="722043792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7317,6 +8607,531 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7344,6 +9159,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>35717</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>154780</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7642,18 +9487,19 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:U42"/>
+  <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection activeCell="A14" sqref="A14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.85546875" customWidth="1"/>
@@ -7670,523 +9516,523 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="135" t="s">
-        <v>795</v>
-      </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="136"/>
-      <c r="Q1" s="137"/>
+      <c r="A1" s="161" t="s">
+        <v>794</v>
+      </c>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="162"/>
+      <c r="P1" s="162"/>
+      <c r="Q1" s="171"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="172" t="s">
+        <v>777</v>
+      </c>
+      <c r="B2" s="173"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="172" t="s">
         <v>778</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="180" t="s">
+      <c r="E2" s="173"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="172" t="s">
         <v>779</v>
       </c>
-      <c r="E2" s="181"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="180" t="s">
+      <c r="H2" s="173"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="172" t="s">
         <v>780</v>
       </c>
-      <c r="H2" s="181"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="180" t="s">
+      <c r="K2" s="173"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="172" t="s">
         <v>781</v>
       </c>
-      <c r="K2" s="181"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="180" t="s">
+      <c r="N2" s="173"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="172" t="s">
         <v>782</v>
       </c>
-      <c r="N2" s="181"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="180" t="s">
-        <v>783</v>
-      </c>
-      <c r="Q2" s="197"/>
+      <c r="Q2" s="174"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="167" t="s">
+      <c r="A3" s="136" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="118" t="s">
-        <v>746</v>
-      </c>
-      <c r="C3" s="166"/>
+        <v>745</v>
+      </c>
+      <c r="C3" s="135"/>
       <c r="D3" s="117" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="118" t="s">
-        <v>746</v>
-      </c>
-      <c r="F3" s="166"/>
+        <v>745</v>
+      </c>
+      <c r="F3" s="135"/>
       <c r="G3" s="117" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="118" t="s">
-        <v>746</v>
-      </c>
-      <c r="I3" s="166"/>
+        <v>745</v>
+      </c>
+      <c r="I3" s="135"/>
       <c r="J3" s="117" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="118" t="s">
-        <v>746</v>
-      </c>
-      <c r="L3" s="166"/>
+        <v>745</v>
+      </c>
+      <c r="L3" s="135"/>
       <c r="M3" s="117" t="s">
         <v>0</v>
       </c>
       <c r="N3" s="118" t="s">
-        <v>746</v>
-      </c>
-      <c r="O3" s="166"/>
+        <v>745</v>
+      </c>
+      <c r="O3" s="135"/>
       <c r="P3" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="168" t="s">
-        <v>746</v>
+      <c r="Q3" s="137" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="138" t="s">
         <v>74</v>
       </c>
       <c r="B4" s="119">
         <v>0</v>
       </c>
-      <c r="C4" s="170"/>
+      <c r="C4" s="139"/>
       <c r="D4" s="119" t="s">
         <v>74</v>
       </c>
       <c r="E4" s="119">
         <v>0</v>
       </c>
-      <c r="F4" s="170"/>
+      <c r="F4" s="139"/>
       <c r="G4" s="119" t="s">
         <v>74</v>
       </c>
       <c r="H4" s="119">
         <v>40</v>
       </c>
-      <c r="I4" s="170"/>
+      <c r="I4" s="139"/>
       <c r="J4" s="119" t="s">
         <v>74</v>
       </c>
       <c r="K4" s="119">
         <v>13</v>
       </c>
-      <c r="L4" s="170"/>
+      <c r="L4" s="139"/>
       <c r="M4" s="119" t="s">
         <v>74</v>
       </c>
       <c r="N4" s="119">
         <v>25</v>
       </c>
-      <c r="O4" s="170"/>
+      <c r="O4" s="139"/>
       <c r="P4" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="Q4" s="171">
+      <c r="Q4" s="140">
         <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="172" t="s">
+      <c r="A5" s="141" t="s">
         <v>184</v>
       </c>
       <c r="B5" s="121">
         <v>0</v>
       </c>
-      <c r="C5" s="170"/>
+      <c r="C5" s="139"/>
       <c r="D5" s="120" t="s">
         <v>184</v>
       </c>
       <c r="E5" s="121">
         <v>0</v>
       </c>
-      <c r="F5" s="170"/>
+      <c r="F5" s="139"/>
       <c r="G5" s="120" t="s">
         <v>184</v>
       </c>
       <c r="H5" s="121">
         <v>0</v>
       </c>
-      <c r="I5" s="170"/>
+      <c r="I5" s="139"/>
       <c r="J5" s="120" t="s">
         <v>184</v>
       </c>
       <c r="K5" s="121">
         <v>0</v>
       </c>
-      <c r="L5" s="170"/>
+      <c r="L5" s="139"/>
       <c r="M5" s="120" t="s">
         <v>184</v>
       </c>
       <c r="N5" s="121">
         <v>0</v>
       </c>
-      <c r="O5" s="170"/>
+      <c r="O5" s="139"/>
       <c r="P5" s="120" t="s">
         <v>184</v>
       </c>
-      <c r="Q5" s="173">
+      <c r="Q5" s="142">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="174" t="s">
+      <c r="A6" s="143" t="s">
         <v>593</v>
       </c>
       <c r="B6" s="123">
         <v>0</v>
       </c>
-      <c r="C6" s="170"/>
+      <c r="C6" s="139"/>
       <c r="D6" s="122" t="s">
         <v>593</v>
       </c>
       <c r="E6" s="123">
         <v>0</v>
       </c>
-      <c r="F6" s="170"/>
+      <c r="F6" s="139"/>
       <c r="G6" s="122" t="s">
         <v>593</v>
       </c>
       <c r="H6" s="123">
         <v>0</v>
       </c>
-      <c r="I6" s="170"/>
+      <c r="I6" s="139"/>
       <c r="J6" s="122" t="s">
         <v>593</v>
       </c>
       <c r="K6" s="123">
         <v>0</v>
       </c>
-      <c r="L6" s="170"/>
+      <c r="L6" s="139"/>
       <c r="M6" s="122" t="s">
         <v>593</v>
       </c>
       <c r="N6" s="123">
         <v>0</v>
       </c>
-      <c r="O6" s="170"/>
+      <c r="O6" s="139"/>
       <c r="P6" s="122" t="s">
         <v>593</v>
       </c>
-      <c r="Q6" s="175">
+      <c r="Q6" s="144">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="176" t="s">
+      <c r="A7" s="145" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="125">
         <v>40</v>
       </c>
-      <c r="C7" s="170"/>
+      <c r="C7" s="139"/>
       <c r="D7" s="124" t="s">
         <v>80</v>
       </c>
       <c r="E7" s="125">
         <v>13</v>
       </c>
-      <c r="F7" s="170"/>
+      <c r="F7" s="139"/>
       <c r="G7" s="124" t="s">
         <v>80</v>
       </c>
       <c r="H7" s="125">
         <v>38</v>
       </c>
-      <c r="I7" s="170"/>
+      <c r="I7" s="139"/>
       <c r="J7" s="124" t="s">
         <v>80</v>
       </c>
       <c r="K7" s="125">
         <v>34</v>
       </c>
-      <c r="L7" s="170"/>
+      <c r="L7" s="139"/>
       <c r="M7" s="124" t="s">
         <v>80</v>
       </c>
       <c r="N7" s="125">
         <v>33</v>
       </c>
-      <c r="O7" s="170"/>
+      <c r="O7" s="139"/>
       <c r="P7" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="177">
+      <c r="Q7" s="146">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="193" t="s">
-        <v>794</v>
-      </c>
-      <c r="B8" s="194">
+      <c r="A8" s="154" t="s">
+        <v>793</v>
+      </c>
+      <c r="B8" s="155">
         <v>40</v>
       </c>
-      <c r="C8" s="170"/>
-      <c r="D8" s="195" t="s">
-        <v>794</v>
-      </c>
-      <c r="E8" s="194">
+      <c r="C8" s="139"/>
+      <c r="D8" s="156" t="s">
+        <v>793</v>
+      </c>
+      <c r="E8" s="155">
         <v>53</v>
       </c>
-      <c r="F8" s="170"/>
-      <c r="G8" s="195" t="s">
+      <c r="F8" s="139"/>
+      <c r="G8" s="156" t="s">
+        <v>792</v>
+      </c>
+      <c r="H8" s="155">
+        <v>78</v>
+      </c>
+      <c r="I8" s="139"/>
+      <c r="J8" s="156" t="s">
         <v>793</v>
       </c>
-      <c r="H8" s="194">
-        <v>78</v>
-      </c>
-      <c r="I8" s="170"/>
-      <c r="J8" s="195" t="s">
-        <v>794</v>
-      </c>
-      <c r="K8" s="194">
+      <c r="K8" s="155">
         <v>87</v>
       </c>
-      <c r="L8" s="170"/>
-      <c r="M8" s="195" t="s">
+      <c r="L8" s="139"/>
+      <c r="M8" s="156" t="s">
+        <v>792</v>
+      </c>
+      <c r="N8" s="155">
+        <v>111</v>
+      </c>
+      <c r="O8" s="139"/>
+      <c r="P8" s="156" t="s">
         <v>793</v>
       </c>
-      <c r="N8" s="194">
-        <v>111</v>
-      </c>
-      <c r="O8" s="170"/>
-      <c r="P8" s="195" t="s">
-        <v>794</v>
-      </c>
-      <c r="Q8" s="196">
+      <c r="Q8" s="157">
         <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="198"/>
-      <c r="B9" s="199"/>
-      <c r="C9" s="199"/>
-      <c r="D9" s="199"/>
-      <c r="E9" s="199"/>
-      <c r="F9" s="199"/>
-      <c r="G9" s="199"/>
-      <c r="H9" s="199"/>
-      <c r="I9" s="199"/>
-      <c r="J9" s="199"/>
-      <c r="K9" s="199"/>
-      <c r="L9" s="199"/>
-      <c r="M9" s="199"/>
-      <c r="N9" s="199"/>
-      <c r="O9" s="199"/>
-      <c r="P9" s="199"/>
-      <c r="Q9" s="200"/>
+      <c r="A9" s="158"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="159"/>
+      <c r="K9" s="159"/>
+      <c r="L9" s="159"/>
+      <c r="M9" s="159"/>
+      <c r="N9" s="159"/>
+      <c r="O9" s="159"/>
+      <c r="P9" s="159"/>
+      <c r="Q9" s="160"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="135" t="s">
-        <v>796</v>
-      </c>
-      <c r="B14" s="136"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
+      <c r="A14" s="161" t="s">
+        <v>795</v>
+      </c>
+      <c r="B14" s="162"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="162"/>
+      <c r="H14" s="162"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="190" t="s">
+      <c r="A15" s="163" t="s">
+        <v>783</v>
+      </c>
+      <c r="B15" s="164"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="163" t="s">
         <v>784</v>
       </c>
-      <c r="B15" s="191"/>
-      <c r="C15" s="191"/>
-      <c r="D15" s="191"/>
-      <c r="E15" s="192"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="190" t="s">
+      <c r="H15" s="165"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="166" t="s">
         <v>785</v>
       </c>
-      <c r="H15" s="192"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="182" t="s">
+      <c r="B16" s="167"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="168" t="s">
         <v>786</v>
       </c>
-      <c r="B16" s="133"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="134" t="s">
-        <v>787</v>
-      </c>
-      <c r="E16" s="183"/>
+      <c r="E16" s="169"/>
       <c r="F16" s="116"/>
-      <c r="G16" s="189" t="s">
-        <v>786</v>
-      </c>
-      <c r="H16" s="183"/>
+      <c r="G16" s="170" t="s">
+        <v>785</v>
+      </c>
+      <c r="H16" s="169"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="184" t="s">
+      <c r="A17" s="149" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="127" t="s">
-        <v>746</v>
-      </c>
-      <c r="C17" s="166"/>
+        <v>745</v>
+      </c>
+      <c r="C17" s="135"/>
       <c r="D17" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="185" t="s">
-        <v>746</v>
+      <c r="E17" s="150" t="s">
+        <v>745</v>
       </c>
       <c r="F17" s="116"/>
-      <c r="G17" s="184" t="s">
+      <c r="G17" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="185" t="s">
-        <v>746</v>
+      <c r="H17" s="150" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="169" t="s">
+      <c r="A18" s="138" t="s">
         <v>74</v>
       </c>
       <c r="B18" s="119">
         <v>23</v>
       </c>
-      <c r="C18" s="166"/>
+      <c r="C18" s="135"/>
       <c r="D18" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="171">
+      <c r="E18" s="140">
         <v>24</v>
       </c>
       <c r="F18" s="116"/>
-      <c r="G18" s="169" t="s">
+      <c r="G18" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="H18" s="171">
+      <c r="H18" s="140">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="172" t="s">
+      <c r="A19" s="141" t="s">
         <v>184</v>
       </c>
       <c r="B19" s="121">
         <v>1</v>
       </c>
-      <c r="C19" s="166"/>
+      <c r="C19" s="135"/>
       <c r="D19" s="120" t="s">
         <v>184</v>
       </c>
-      <c r="E19" s="173">
+      <c r="E19" s="142">
         <v>0</v>
       </c>
       <c r="F19" s="116"/>
-      <c r="G19" s="172" t="s">
+      <c r="G19" s="141" t="s">
         <v>184</v>
       </c>
-      <c r="H19" s="173">
+      <c r="H19" s="142">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="174" t="s">
+      <c r="A20" s="143" t="s">
         <v>593</v>
       </c>
       <c r="B20" s="123">
         <v>0</v>
       </c>
-      <c r="C20" s="166"/>
+      <c r="C20" s="135"/>
       <c r="D20" s="122" t="s">
         <v>593</v>
       </c>
-      <c r="E20" s="175">
+      <c r="E20" s="144">
         <v>0</v>
       </c>
       <c r="F20" s="116"/>
-      <c r="G20" s="174" t="s">
+      <c r="G20" s="143" t="s">
         <v>593</v>
       </c>
-      <c r="H20" s="175">
+      <c r="H20" s="144">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="176" t="s">
+      <c r="A21" s="145" t="s">
         <v>80</v>
       </c>
       <c r="B21" s="125">
         <v>0</v>
       </c>
-      <c r="C21" s="166"/>
+      <c r="C21" s="135"/>
       <c r="D21" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="177">
+      <c r="E21" s="146">
         <v>0</v>
       </c>
       <c r="F21" s="116"/>
-      <c r="G21" s="176" t="s">
+      <c r="G21" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="H21" s="177">
+      <c r="H21" s="146">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="178" t="s">
-        <v>794</v>
-      </c>
-      <c r="B22" s="165">
+      <c r="A22" s="147" t="s">
+        <v>793</v>
+      </c>
+      <c r="B22" s="134">
         <v>24</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="164" t="s">
-        <v>794</v>
-      </c>
-      <c r="E22" s="179">
+      <c r="D22" s="133" t="s">
+        <v>793</v>
+      </c>
+      <c r="E22" s="148">
         <v>24</v>
       </c>
-      <c r="G22" s="178" t="s">
-        <v>794</v>
-      </c>
-      <c r="H22" s="179">
+      <c r="G22" s="147" t="s">
+        <v>793</v>
+      </c>
+      <c r="H22" s="148">
         <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="186"/>
-      <c r="B23" s="187"/>
-      <c r="C23" s="187"/>
-      <c r="D23" s="187"/>
-      <c r="E23" s="188"/>
-      <c r="G23" s="186"/>
-      <c r="H23" s="188"/>
+      <c r="A23" s="151"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="153"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="153"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="130" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B25" s="130" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C25" s="130" t="s">
         <v>74</v>
@@ -8198,12 +10044,12 @@
         <v>80</v>
       </c>
       <c r="F25" s="130" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="131" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B26" s="129">
         <v>0</v>
@@ -8223,7 +10069,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="131" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B27" s="129">
         <v>0</v>
@@ -8243,7 +10089,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="131" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B28" s="129">
         <v>40</v>
@@ -8263,7 +10109,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="131" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B29" s="129">
         <v>13</v>
@@ -8283,7 +10129,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="131" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B30" s="129">
         <v>25</v>
@@ -8303,7 +10149,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="131" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B31" s="129">
         <v>102</v>
@@ -8323,10 +10169,10 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="130" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B33" s="130" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C33" s="130" t="s">
         <v>74</v>
@@ -8338,15 +10184,15 @@
         <v>80</v>
       </c>
       <c r="F33" s="130" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G33" s="130" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="131" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B34" s="129">
         <v>0</v>
@@ -8373,7 +10219,7 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="131" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B35" s="129">
         <v>0</v>
@@ -8396,7 +10242,7 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="131" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B36" s="129">
         <v>40</v>
@@ -8419,7 +10265,7 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="131" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B37" s="129">
         <v>13</v>
@@ -8442,7 +10288,7 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="131" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B38" s="129">
         <v>25</v>
@@ -8465,7 +10311,7 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="131" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B39" s="129">
         <v>102</v>
@@ -8489,20 +10335,169 @@
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H40" s="132"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H41" s="132"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H42" s="132"/>
+    <row r="42" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="202" t="s">
+        <v>747</v>
+      </c>
+      <c r="B42" s="203" t="s">
+        <v>791</v>
+      </c>
+      <c r="C42" s="202" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="202" t="s">
+        <v>184</v>
+      </c>
+      <c r="E42" s="202" t="s">
+        <v>723</v>
+      </c>
+      <c r="F42" s="202" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" s="202" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="131" t="s">
+        <v>740</v>
+      </c>
+      <c r="B43" s="129">
+        <v>0</v>
+      </c>
+      <c r="C43" s="129">
+        <v>0</v>
+      </c>
+      <c r="D43" s="129">
+        <v>0</v>
+      </c>
+      <c r="E43" s="129">
+        <v>0</v>
+      </c>
+      <c r="F43" s="129">
+        <v>40</v>
+      </c>
+      <c r="G43" s="129">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="131" t="s">
+        <v>741</v>
+      </c>
+      <c r="B44" s="129">
+        <v>0</v>
+      </c>
+      <c r="C44" s="129">
+        <v>0</v>
+      </c>
+      <c r="D44" s="129">
+        <v>0</v>
+      </c>
+      <c r="E44" s="129">
+        <v>0</v>
+      </c>
+      <c r="F44" s="129">
+        <v>13</v>
+      </c>
+      <c r="G44" s="129">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="131" t="s">
+        <v>742</v>
+      </c>
+      <c r="B45" s="129">
+        <v>40</v>
+      </c>
+      <c r="C45" s="129">
+        <v>40</v>
+      </c>
+      <c r="D45" s="129">
+        <v>1</v>
+      </c>
+      <c r="E45" s="129">
+        <v>1</v>
+      </c>
+      <c r="F45" s="129">
+        <v>38</v>
+      </c>
+      <c r="G45" s="129">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="131" t="s">
+        <v>743</v>
+      </c>
+      <c r="B46" s="129">
+        <v>13</v>
+      </c>
+      <c r="C46" s="129">
+        <v>13</v>
+      </c>
+      <c r="D46" s="129">
+        <v>1</v>
+      </c>
+      <c r="E46" s="129">
+        <v>1</v>
+      </c>
+      <c r="F46" s="129">
+        <v>34</v>
+      </c>
+      <c r="G46" s="129">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="131" t="s">
+        <v>744</v>
+      </c>
+      <c r="B47" s="129">
+        <v>25</v>
+      </c>
+      <c r="C47" s="129">
+        <v>25</v>
+      </c>
+      <c r="D47" s="129">
+        <v>0</v>
+      </c>
+      <c r="E47" s="129">
+        <v>0</v>
+      </c>
+      <c r="F47" s="129">
+        <v>33</v>
+      </c>
+      <c r="G47" s="129">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="131" t="s">
+        <v>746</v>
+      </c>
+      <c r="B48" s="129">
+        <v>102</v>
+      </c>
+      <c r="C48" s="129">
+        <v>102</v>
+      </c>
+      <c r="D48" s="129">
+        <v>3</v>
+      </c>
+      <c r="E48" s="129">
+        <v>3</v>
+      </c>
+      <c r="F48" s="129">
+        <v>0</v>
+      </c>
+      <c r="G48" s="129">
+        <v>156</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:H16"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
@@ -8510,6 +10505,12 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8586,22 +10587,22 @@
         <v>0</v>
       </c>
       <c r="K1" s="78" t="s">
+        <v>740</v>
+      </c>
+      <c r="L1" s="78" t="s">
         <v>741</v>
       </c>
-      <c r="L1" s="78" t="s">
+      <c r="M1" s="78" t="s">
         <v>742</v>
       </c>
-      <c r="M1" s="78" t="s">
+      <c r="N1" s="78" t="s">
         <v>743</v>
       </c>
-      <c r="N1" s="78" t="s">
+      <c r="O1" s="78" t="s">
         <v>744</v>
       </c>
-      <c r="O1" s="78" t="s">
-        <v>745</v>
-      </c>
       <c r="P1" s="78" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="Q1" s="78" t="s">
         <v>20</v>
@@ -8648,26 +10649,26 @@
       <c r="BC1" s="82"/>
     </row>
     <row r="2" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="178" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="151"/>
-      <c r="Q2" s="151"/>
-      <c r="R2" s="152"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="179"/>
+      <c r="M2" s="179"/>
+      <c r="N2" s="179"/>
+      <c r="O2" s="179"/>
+      <c r="P2" s="179"/>
+      <c r="Q2" s="179"/>
+      <c r="R2" s="180"/>
     </row>
     <row r="3" spans="1:56" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -8699,7 +10700,7 @@
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L3" s="69"/>
       <c r="M3" s="69" t="s">
@@ -8741,7 +10742,7 @@
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L4" s="69"/>
       <c r="M4" s="69" t="s">
@@ -8785,7 +10786,7 @@
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L5" s="69"/>
       <c r="M5" s="69" t="s">
@@ -8827,7 +10828,7 @@
       </c>
       <c r="J6" s="15"/>
       <c r="K6" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L6" s="69"/>
       <c r="M6" s="69" t="s">
@@ -8869,7 +10870,7 @@
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L7" s="69"/>
       <c r="M7" s="69" t="s">
@@ -8911,7 +10912,7 @@
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L8" s="69"/>
       <c r="M8" s="69" t="s">
@@ -8953,7 +10954,7 @@
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L9" s="69"/>
       <c r="M9" s="69" t="s">
@@ -8995,7 +10996,7 @@
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L10" s="69"/>
       <c r="M10" s="69" t="s">
@@ -9037,7 +11038,7 @@
       </c>
       <c r="J11" s="15"/>
       <c r="K11" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L11" s="69"/>
       <c r="M11" s="69" t="s">
@@ -9079,7 +11080,7 @@
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L12" s="69"/>
       <c r="M12" s="69" t="s">
@@ -9123,7 +11124,7 @@
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L13" s="69"/>
       <c r="M13" s="69" t="s">
@@ -9167,7 +11168,7 @@
       </c>
       <c r="J14" s="15"/>
       <c r="K14" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L14" s="69"/>
       <c r="M14" s="69" t="s">
@@ -9211,7 +11212,7 @@
       </c>
       <c r="J15" s="15"/>
       <c r="K15" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L15" s="69"/>
       <c r="M15" s="69" t="s">
@@ -9255,7 +11256,7 @@
       </c>
       <c r="J16" s="15"/>
       <c r="K16" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L16" s="69"/>
       <c r="M16" s="69" t="s">
@@ -9299,7 +11300,7 @@
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L17" s="69"/>
       <c r="M17" s="69" t="s">
@@ -9343,7 +11344,7 @@
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L18" s="69"/>
       <c r="M18" s="69" t="s">
@@ -9353,7 +11354,7 @@
       <c r="O18" s="69"/>
       <c r="P18" s="69"/>
       <c r="Q18" s="10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="R18" s="9"/>
       <c r="BC18" s="3"/>
@@ -9389,7 +11390,7 @@
       </c>
       <c r="J19" s="15"/>
       <c r="K19" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L19" s="69"/>
       <c r="M19" s="69" t="s">
@@ -9433,7 +11434,7 @@
       </c>
       <c r="J20" s="15"/>
       <c r="K20" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L20" s="69"/>
       <c r="M20" s="69" t="s">
@@ -9477,7 +11478,7 @@
       </c>
       <c r="J21" s="15"/>
       <c r="K21" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L21" s="69"/>
       <c r="M21" s="69" t="s">
@@ -9521,7 +11522,7 @@
       </c>
       <c r="J22" s="15"/>
       <c r="K22" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L22" s="69"/>
       <c r="M22" s="69" t="s">
@@ -9565,7 +11566,7 @@
       </c>
       <c r="J23" s="15"/>
       <c r="K23" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L23" s="69"/>
       <c r="M23" s="69" t="s">
@@ -9609,7 +11610,7 @@
       </c>
       <c r="J24" s="15"/>
       <c r="K24" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L24" s="69"/>
       <c r="M24" s="69" t="s">
@@ -9653,7 +11654,7 @@
       </c>
       <c r="J25" s="15"/>
       <c r="K25" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L25" s="69"/>
       <c r="M25" s="69" t="s">
@@ -9697,7 +11698,7 @@
       </c>
       <c r="J26" s="15"/>
       <c r="K26" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L26" s="69"/>
       <c r="M26" s="69" t="s">
@@ -9741,7 +11742,7 @@
       </c>
       <c r="J27" s="15"/>
       <c r="K27" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L27" s="70"/>
       <c r="M27" s="69" t="s">
@@ -9780,11 +11781,11 @@
         <v>219</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J28" s="15"/>
       <c r="K28" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L28" s="69"/>
       <c r="M28" s="69" t="s">
@@ -9828,7 +11829,7 @@
       </c>
       <c r="J29" s="15"/>
       <c r="K29" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L29" s="69"/>
       <c r="M29" s="69" t="s">
@@ -9872,7 +11873,7 @@
       </c>
       <c r="J30" s="15"/>
       <c r="K30" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L30" s="69"/>
       <c r="M30" s="69" t="s">
@@ -9916,7 +11917,7 @@
       </c>
       <c r="J31" s="15"/>
       <c r="K31" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L31" s="69"/>
       <c r="M31" s="69" t="s">
@@ -9960,7 +11961,7 @@
       </c>
       <c r="J32" s="15"/>
       <c r="K32" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L32" s="69"/>
       <c r="M32" s="69" t="s">
@@ -10004,7 +12005,7 @@
       </c>
       <c r="J33" s="15"/>
       <c r="K33" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L33" s="69"/>
       <c r="M33" s="69" t="s">
@@ -10048,7 +12049,7 @@
       </c>
       <c r="J34" s="15"/>
       <c r="K34" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L34" s="69"/>
       <c r="M34" s="69" t="s">
@@ -10092,7 +12093,7 @@
       </c>
       <c r="J35" s="15"/>
       <c r="K35" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L35" s="69"/>
       <c r="M35" s="69" t="s">
@@ -10136,7 +12137,7 @@
       </c>
       <c r="J36" s="15"/>
       <c r="K36" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L36" s="69"/>
       <c r="M36" s="69" t="s">
@@ -10180,7 +12181,7 @@
       </c>
       <c r="J37" s="15"/>
       <c r="K37" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L37" s="69"/>
       <c r="M37" s="69" t="s">
@@ -10220,7 +12221,7 @@
       <c r="I38" s="14"/>
       <c r="J38" s="15"/>
       <c r="K38" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L38" s="69"/>
       <c r="M38" s="69" t="s">
@@ -10264,7 +12265,7 @@
       </c>
       <c r="J39" s="15"/>
       <c r="K39" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L39" s="69"/>
       <c r="M39" s="69" t="s">
@@ -10308,7 +12309,7 @@
       </c>
       <c r="J40" s="16"/>
       <c r="K40" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L40" s="69"/>
       <c r="M40" s="69" t="s">
@@ -10352,7 +12353,7 @@
       </c>
       <c r="J41" s="16"/>
       <c r="K41" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L41" s="69"/>
       <c r="M41" s="69" t="s">
@@ -10396,7 +12397,7 @@
       </c>
       <c r="J42" s="15"/>
       <c r="K42" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L42" s="69"/>
       <c r="M42" s="69" t="s">
@@ -10426,26 +12427,26 @@
       <c r="BD43" s="2"/>
     </row>
     <row r="44" spans="1:56" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="138" t="s">
+      <c r="A44" s="175" t="s">
         <v>584</v>
       </c>
-      <c r="B44" s="139"/>
-      <c r="C44" s="139"/>
-      <c r="D44" s="139"/>
-      <c r="E44" s="139"/>
-      <c r="F44" s="139"/>
-      <c r="G44" s="139"/>
-      <c r="H44" s="139"/>
-      <c r="I44" s="139"/>
-      <c r="J44" s="139"/>
-      <c r="K44" s="139"/>
-      <c r="L44" s="139"/>
-      <c r="M44" s="139"/>
-      <c r="N44" s="139"/>
-      <c r="O44" s="139"/>
-      <c r="P44" s="139"/>
-      <c r="Q44" s="139"/>
-      <c r="R44" s="140"/>
+      <c r="B44" s="176"/>
+      <c r="C44" s="176"/>
+      <c r="D44" s="176"/>
+      <c r="E44" s="176"/>
+      <c r="F44" s="176"/>
+      <c r="G44" s="176"/>
+      <c r="H44" s="176"/>
+      <c r="I44" s="176"/>
+      <c r="J44" s="176"/>
+      <c r="K44" s="176"/>
+      <c r="L44" s="176"/>
+      <c r="M44" s="176"/>
+      <c r="N44" s="176"/>
+      <c r="O44" s="176"/>
+      <c r="P44" s="176"/>
+      <c r="Q44" s="176"/>
+      <c r="R44" s="177"/>
       <c r="BC44" s="3"/>
       <c r="BD44" s="2"/>
     </row>
@@ -11356,26 +13357,26 @@
       <c r="BD67" s="2"/>
     </row>
     <row r="68" spans="1:56" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="138" t="s">
+      <c r="A68" s="175" t="s">
         <v>611</v>
       </c>
-      <c r="B68" s="139"/>
-      <c r="C68" s="139"/>
-      <c r="D68" s="139"/>
-      <c r="E68" s="139"/>
-      <c r="F68" s="139"/>
-      <c r="G68" s="139"/>
-      <c r="H68" s="139"/>
-      <c r="I68" s="139"/>
-      <c r="J68" s="139"/>
-      <c r="K68" s="139"/>
-      <c r="L68" s="139"/>
-      <c r="M68" s="139"/>
-      <c r="N68" s="139"/>
-      <c r="O68" s="139"/>
-      <c r="P68" s="139"/>
-      <c r="Q68" s="139"/>
-      <c r="R68" s="140"/>
+      <c r="B68" s="176"/>
+      <c r="C68" s="176"/>
+      <c r="D68" s="176"/>
+      <c r="E68" s="176"/>
+      <c r="F68" s="176"/>
+      <c r="G68" s="176"/>
+      <c r="H68" s="176"/>
+      <c r="I68" s="176"/>
+      <c r="J68" s="176"/>
+      <c r="K68" s="176"/>
+      <c r="L68" s="176"/>
+      <c r="M68" s="176"/>
+      <c r="N68" s="176"/>
+      <c r="O68" s="176"/>
+      <c r="P68" s="176"/>
+      <c r="Q68" s="176"/>
+      <c r="R68" s="177"/>
       <c r="BC68" s="3"/>
       <c r="BD68" s="2"/>
     </row>
@@ -11410,7 +13411,7 @@
       <c r="J69" s="15"/>
       <c r="K69" s="69"/>
       <c r="L69" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="M69" s="69"/>
       <c r="N69" s="15" t="s">
@@ -11454,7 +13455,7 @@
       <c r="J70" s="15"/>
       <c r="K70" s="69"/>
       <c r="L70" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="M70" s="69"/>
       <c r="N70" s="15" t="s">
@@ -11498,7 +13499,7 @@
       <c r="J71" s="15"/>
       <c r="K71" s="69"/>
       <c r="L71" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="M71" s="69"/>
       <c r="N71" s="15" t="s">
@@ -11542,7 +13543,7 @@
       <c r="J72" s="15"/>
       <c r="K72" s="69"/>
       <c r="L72" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="M72" s="69"/>
       <c r="N72" s="15" t="s">
@@ -11586,7 +13587,7 @@
       <c r="J73" s="15"/>
       <c r="K73" s="69"/>
       <c r="L73" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="M73" s="69"/>
       <c r="N73" s="15" t="s">
@@ -11628,7 +13629,7 @@
       <c r="J74" s="15"/>
       <c r="K74" s="69"/>
       <c r="L74" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="M74" s="69"/>
       <c r="N74" s="15" t="s">
@@ -11670,7 +13671,7 @@
       <c r="J75" s="15"/>
       <c r="K75" s="69"/>
       <c r="L75" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="M75" s="69"/>
       <c r="N75" s="15" t="s">
@@ -11714,7 +13715,7 @@
       <c r="J76" s="15"/>
       <c r="K76" s="69"/>
       <c r="L76" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="M76" s="69"/>
       <c r="N76" s="15" t="s">
@@ -11758,7 +13759,7 @@
       <c r="J77" s="15"/>
       <c r="K77" s="69"/>
       <c r="L77" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="M77" s="69"/>
       <c r="N77" s="15" t="s">
@@ -11802,7 +13803,7 @@
       <c r="J78" s="15"/>
       <c r="K78" s="69"/>
       <c r="L78" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="M78" s="69"/>
       <c r="N78" s="15" t="s">
@@ -11846,7 +13847,7 @@
       <c r="J79" s="15"/>
       <c r="K79" s="69"/>
       <c r="L79" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="M79" s="69"/>
       <c r="N79" s="15" t="s">
@@ -11890,7 +13891,7 @@
       <c r="J80" s="15"/>
       <c r="K80" s="69"/>
       <c r="L80" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="M80" s="69"/>
       <c r="N80" s="15" t="s">
@@ -11934,7 +13935,7 @@
       <c r="J81" s="15"/>
       <c r="K81" s="70"/>
       <c r="L81" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="M81" s="70"/>
       <c r="N81" s="15" t="s">
@@ -11968,26 +13969,26 @@
       <c r="BD82" s="2"/>
     </row>
     <row r="83" spans="1:56" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="138" t="s">
+      <c r="A83" s="175" t="s">
         <v>420</v>
       </c>
-      <c r="B83" s="139"/>
-      <c r="C83" s="139"/>
-      <c r="D83" s="139"/>
-      <c r="E83" s="139"/>
-      <c r="F83" s="139"/>
-      <c r="G83" s="139"/>
-      <c r="H83" s="139"/>
-      <c r="I83" s="139"/>
-      <c r="J83" s="139"/>
-      <c r="K83" s="139"/>
-      <c r="L83" s="139"/>
-      <c r="M83" s="139"/>
-      <c r="N83" s="139"/>
-      <c r="O83" s="139"/>
-      <c r="P83" s="139"/>
-      <c r="Q83" s="139"/>
-      <c r="R83" s="140"/>
+      <c r="B83" s="176"/>
+      <c r="C83" s="176"/>
+      <c r="D83" s="176"/>
+      <c r="E83" s="176"/>
+      <c r="F83" s="176"/>
+      <c r="G83" s="176"/>
+      <c r="H83" s="176"/>
+      <c r="I83" s="176"/>
+      <c r="J83" s="176"/>
+      <c r="K83" s="176"/>
+      <c r="L83" s="176"/>
+      <c r="M83" s="176"/>
+      <c r="N83" s="176"/>
+      <c r="O83" s="176"/>
+      <c r="P83" s="176"/>
+      <c r="Q83" s="176"/>
+      <c r="R83" s="177"/>
       <c r="BC83" s="3"/>
       <c r="BD83" s="2"/>
     </row>
@@ -12023,7 +14024,7 @@
       <c r="K84" s="69"/>
       <c r="L84" s="69"/>
       <c r="M84" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N84" s="69"/>
       <c r="O84" s="15" t="s">
@@ -12065,7 +14066,7 @@
       <c r="K85" s="69"/>
       <c r="L85" s="69"/>
       <c r="M85" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N85" s="69"/>
       <c r="O85" s="15" t="s">
@@ -12107,7 +14108,7 @@
       <c r="K86" s="69"/>
       <c r="L86" s="69"/>
       <c r="M86" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N86" s="69"/>
       <c r="O86" s="15" t="s">
@@ -12147,7 +14148,7 @@
       <c r="K87" s="69"/>
       <c r="L87" s="69"/>
       <c r="M87" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N87" s="69"/>
       <c r="O87" s="15" t="s">
@@ -12187,7 +14188,7 @@
       <c r="K88" s="69"/>
       <c r="L88" s="69"/>
       <c r="M88" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N88" s="69"/>
       <c r="O88" s="15"/>
@@ -12225,7 +14226,7 @@
       <c r="K89" s="69"/>
       <c r="L89" s="69"/>
       <c r="M89" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N89" s="69"/>
       <c r="O89" s="15" t="s">
@@ -12269,7 +14270,7 @@
       <c r="K90" s="71"/>
       <c r="L90" s="71"/>
       <c r="M90" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N90" s="71"/>
       <c r="O90" s="22" t="s">
@@ -12313,7 +14314,7 @@
       <c r="K91" s="71"/>
       <c r="L91" s="71"/>
       <c r="M91" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N91" s="71"/>
       <c r="O91" s="22" t="s">
@@ -12348,26 +14349,26 @@
       <c r="BD92" s="2"/>
     </row>
     <row r="93" spans="1:56" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="138" t="s">
+      <c r="A93" s="175" t="s">
         <v>432</v>
       </c>
-      <c r="B93" s="139"/>
-      <c r="C93" s="139"/>
-      <c r="D93" s="139"/>
-      <c r="E93" s="139"/>
-      <c r="F93" s="139"/>
-      <c r="G93" s="139"/>
-      <c r="H93" s="139"/>
-      <c r="I93" s="139"/>
-      <c r="J93" s="139"/>
-      <c r="K93" s="139"/>
-      <c r="L93" s="139"/>
-      <c r="M93" s="139"/>
-      <c r="N93" s="139"/>
-      <c r="O93" s="139"/>
-      <c r="P93" s="139"/>
-      <c r="Q93" s="139"/>
-      <c r="R93" s="140"/>
+      <c r="B93" s="176"/>
+      <c r="C93" s="176"/>
+      <c r="D93" s="176"/>
+      <c r="E93" s="176"/>
+      <c r="F93" s="176"/>
+      <c r="G93" s="176"/>
+      <c r="H93" s="176"/>
+      <c r="I93" s="176"/>
+      <c r="J93" s="176"/>
+      <c r="K93" s="176"/>
+      <c r="L93" s="176"/>
+      <c r="M93" s="176"/>
+      <c r="N93" s="176"/>
+      <c r="O93" s="176"/>
+      <c r="P93" s="176"/>
+      <c r="Q93" s="176"/>
+      <c r="R93" s="177"/>
       <c r="BC93" s="3"/>
       <c r="BD93" s="2"/>
     </row>
@@ -12425,7 +14426,7 @@
       <c r="K95" s="69"/>
       <c r="L95" s="69"/>
       <c r="M95" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N95" s="69"/>
       <c r="O95" s="15" t="s">
@@ -12438,22 +14439,22 @@
       <c r="BD95" s="2"/>
     </row>
     <row r="96" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A96" s="141" t="s">
+      <c r="A96" s="181" t="s">
         <v>344</v>
       </c>
-      <c r="B96" s="144" t="s">
+      <c r="B96" s="184" t="s">
         <v>351</v>
       </c>
-      <c r="C96" s="141" t="s">
+      <c r="C96" s="181" t="s">
         <v>346</v>
       </c>
-      <c r="D96" s="147" t="s">
+      <c r="D96" s="187" t="s">
         <v>352</v>
       </c>
-      <c r="E96" s="144" t="s">
+      <c r="E96" s="184" t="s">
         <v>353</v>
       </c>
-      <c r="F96" s="141" t="s">
+      <c r="F96" s="181" t="s">
         <v>354</v>
       </c>
       <c r="G96" s="12" t="s">
@@ -12469,7 +14470,7 @@
       <c r="K96" s="69"/>
       <c r="L96" s="69"/>
       <c r="M96" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N96" s="69"/>
       <c r="O96" s="15" t="s">
@@ -12482,12 +14483,12 @@
       <c r="BD96" s="2"/>
     </row>
     <row r="97" spans="1:56" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="142"/>
-      <c r="B97" s="145"/>
-      <c r="C97" s="142"/>
-      <c r="D97" s="148"/>
-      <c r="E97" s="145"/>
-      <c r="F97" s="142"/>
+      <c r="A97" s="182"/>
+      <c r="B97" s="185"/>
+      <c r="C97" s="182"/>
+      <c r="D97" s="188"/>
+      <c r="E97" s="185"/>
+      <c r="F97" s="182"/>
       <c r="G97" s="12" t="s">
         <v>357</v>
       </c>
@@ -12501,7 +14502,7 @@
       <c r="K97" s="69"/>
       <c r="L97" s="69"/>
       <c r="M97" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N97" s="69"/>
       <c r="O97" s="15" t="s">
@@ -12514,12 +14515,12 @@
       <c r="BD97" s="2"/>
     </row>
     <row r="98" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A98" s="143"/>
-      <c r="B98" s="146"/>
-      <c r="C98" s="143"/>
-      <c r="D98" s="149"/>
-      <c r="E98" s="146"/>
-      <c r="F98" s="143"/>
+      <c r="A98" s="183"/>
+      <c r="B98" s="186"/>
+      <c r="C98" s="183"/>
+      <c r="D98" s="189"/>
+      <c r="E98" s="186"/>
+      <c r="F98" s="183"/>
       <c r="G98" s="12" t="s">
         <v>359</v>
       </c>
@@ -12533,7 +14534,7 @@
       <c r="K98" s="69"/>
       <c r="L98" s="69"/>
       <c r="M98" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N98" s="69"/>
       <c r="O98" s="15" t="s">
@@ -12577,7 +14578,7 @@
       <c r="K99" s="69"/>
       <c r="L99" s="69"/>
       <c r="M99" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N99" s="69"/>
       <c r="O99" s="15" t="s">
@@ -12621,7 +14622,7 @@
       <c r="K100" s="69"/>
       <c r="L100" s="69"/>
       <c r="M100" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N100" s="69"/>
       <c r="O100" s="15" t="s">
@@ -12665,7 +14666,7 @@
       <c r="K101" s="69"/>
       <c r="L101" s="69"/>
       <c r="M101" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N101" s="69"/>
       <c r="O101" s="15" t="s">
@@ -12709,7 +14710,7 @@
       <c r="K102" s="69"/>
       <c r="L102" s="69"/>
       <c r="M102" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N102" s="69"/>
       <c r="O102" s="15" t="s">
@@ -12753,7 +14754,7 @@
       <c r="K103" s="69"/>
       <c r="L103" s="69"/>
       <c r="M103" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N103" s="69"/>
       <c r="O103" s="15" t="s">
@@ -12797,7 +14798,7 @@
       <c r="K104" s="69"/>
       <c r="L104" s="69"/>
       <c r="M104" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N104" s="69"/>
       <c r="O104" s="15" t="s">
@@ -12852,26 +14853,26 @@
       <c r="R106" s="3"/>
     </row>
     <row r="107" spans="1:56" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="138" t="s">
+      <c r="A107" s="175" t="s">
         <v>421</v>
       </c>
-      <c r="B107" s="139"/>
-      <c r="C107" s="139"/>
-      <c r="D107" s="139"/>
-      <c r="E107" s="139"/>
-      <c r="F107" s="139"/>
-      <c r="G107" s="139"/>
-      <c r="H107" s="139"/>
-      <c r="I107" s="139"/>
-      <c r="J107" s="139"/>
-      <c r="K107" s="139"/>
-      <c r="L107" s="139"/>
-      <c r="M107" s="139"/>
-      <c r="N107" s="139"/>
-      <c r="O107" s="139"/>
-      <c r="P107" s="139"/>
-      <c r="Q107" s="139"/>
-      <c r="R107" s="140"/>
+      <c r="B107" s="176"/>
+      <c r="C107" s="176"/>
+      <c r="D107" s="176"/>
+      <c r="E107" s="176"/>
+      <c r="F107" s="176"/>
+      <c r="G107" s="176"/>
+      <c r="H107" s="176"/>
+      <c r="I107" s="176"/>
+      <c r="J107" s="176"/>
+      <c r="K107" s="176"/>
+      <c r="L107" s="176"/>
+      <c r="M107" s="176"/>
+      <c r="N107" s="176"/>
+      <c r="O107" s="176"/>
+      <c r="P107" s="176"/>
+      <c r="Q107" s="176"/>
+      <c r="R107" s="177"/>
       <c r="BC107" s="3"/>
       <c r="BD107" s="2"/>
     </row>
@@ -12907,7 +14908,7 @@
       <c r="K108" s="69"/>
       <c r="L108" s="69"/>
       <c r="M108" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N108" s="69"/>
       <c r="O108" s="15" t="s">
@@ -12951,7 +14952,7 @@
       <c r="K109" s="69"/>
       <c r="L109" s="69"/>
       <c r="M109" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N109" s="69"/>
       <c r="O109" s="15" t="s">
@@ -12995,7 +14996,7 @@
       <c r="K110" s="69"/>
       <c r="L110" s="69"/>
       <c r="M110" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N110" s="69"/>
       <c r="O110" s="15" t="s">
@@ -13039,7 +15040,7 @@
       <c r="K111" s="69"/>
       <c r="L111" s="69"/>
       <c r="M111" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N111" s="69"/>
       <c r="O111" s="15" t="s">
@@ -13083,7 +15084,7 @@
       <c r="K112" s="69"/>
       <c r="L112" s="69"/>
       <c r="M112" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N112" s="69"/>
       <c r="O112" s="15" t="s">
@@ -13127,7 +15128,7 @@
       <c r="K113" s="69"/>
       <c r="L113" s="69"/>
       <c r="M113" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N113" s="69"/>
       <c r="O113" s="15" t="s">
@@ -13171,7 +15172,7 @@
       <c r="K114" s="69"/>
       <c r="L114" s="69"/>
       <c r="M114" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N114" s="69"/>
       <c r="O114" s="15" t="s">
@@ -13206,26 +15207,26 @@
       <c r="BD115" s="2"/>
     </row>
     <row r="116" spans="1:56" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="138" t="s">
+      <c r="A116" s="175" t="s">
         <v>431</v>
       </c>
-      <c r="B116" s="139"/>
-      <c r="C116" s="139"/>
-      <c r="D116" s="139"/>
-      <c r="E116" s="139"/>
-      <c r="F116" s="139"/>
-      <c r="G116" s="139"/>
-      <c r="H116" s="139"/>
-      <c r="I116" s="139"/>
-      <c r="J116" s="139"/>
-      <c r="K116" s="139"/>
-      <c r="L116" s="139"/>
-      <c r="M116" s="139"/>
-      <c r="N116" s="139"/>
-      <c r="O116" s="139"/>
-      <c r="P116" s="139"/>
-      <c r="Q116" s="139"/>
-      <c r="R116" s="140"/>
+      <c r="B116" s="176"/>
+      <c r="C116" s="176"/>
+      <c r="D116" s="176"/>
+      <c r="E116" s="176"/>
+      <c r="F116" s="176"/>
+      <c r="G116" s="176"/>
+      <c r="H116" s="176"/>
+      <c r="I116" s="176"/>
+      <c r="J116" s="176"/>
+      <c r="K116" s="176"/>
+      <c r="L116" s="176"/>
+      <c r="M116" s="176"/>
+      <c r="N116" s="176"/>
+      <c r="O116" s="176"/>
+      <c r="P116" s="176"/>
+      <c r="Q116" s="176"/>
+      <c r="R116" s="177"/>
       <c r="BC116" s="3"/>
       <c r="BD116" s="2"/>
     </row>
@@ -13252,22 +15253,22 @@
       <c r="BD117" s="2"/>
     </row>
     <row r="118" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A118" s="141" t="s">
+      <c r="A118" s="181" t="s">
         <v>437</v>
       </c>
-      <c r="B118" s="144" t="s">
+      <c r="B118" s="184" t="s">
         <v>438</v>
       </c>
-      <c r="C118" s="141" t="s">
+      <c r="C118" s="181" t="s">
         <v>433</v>
       </c>
-      <c r="D118" s="147" t="s">
+      <c r="D118" s="187" t="s">
         <v>436</v>
       </c>
-      <c r="E118" s="144" t="s">
+      <c r="E118" s="184" t="s">
         <v>22</v>
       </c>
-      <c r="F118" s="141" t="s">
+      <c r="F118" s="181" t="s">
         <v>457</v>
       </c>
       <c r="G118" s="12" t="s">
@@ -13284,7 +15285,7 @@
       <c r="L118" s="73"/>
       <c r="M118" s="73"/>
       <c r="N118" s="10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O118" s="73"/>
       <c r="P118" s="73" t="s">
@@ -13296,12 +15297,12 @@
       <c r="BD118" s="2"/>
     </row>
     <row r="119" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A119" s="142"/>
-      <c r="B119" s="145"/>
-      <c r="C119" s="142"/>
-      <c r="D119" s="148"/>
-      <c r="E119" s="145"/>
-      <c r="F119" s="142"/>
+      <c r="A119" s="182"/>
+      <c r="B119" s="185"/>
+      <c r="C119" s="182"/>
+      <c r="D119" s="188"/>
+      <c r="E119" s="185"/>
+      <c r="F119" s="182"/>
       <c r="G119" s="12" t="s">
         <v>357</v>
       </c>
@@ -13316,7 +15317,7 @@
       <c r="L119" s="73"/>
       <c r="M119" s="73"/>
       <c r="N119" s="10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O119" s="73"/>
       <c r="P119" s="73" t="s">
@@ -13328,12 +15329,12 @@
       <c r="BD119" s="2"/>
     </row>
     <row r="120" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A120" s="143"/>
-      <c r="B120" s="146"/>
-      <c r="C120" s="143"/>
-      <c r="D120" s="149"/>
-      <c r="E120" s="146"/>
-      <c r="F120" s="143"/>
+      <c r="A120" s="183"/>
+      <c r="B120" s="186"/>
+      <c r="C120" s="183"/>
+      <c r="D120" s="189"/>
+      <c r="E120" s="186"/>
+      <c r="F120" s="183"/>
       <c r="G120" s="12" t="s">
         <v>359</v>
       </c>
@@ -13348,7 +15349,7 @@
       <c r="L120" s="73"/>
       <c r="M120" s="73"/>
       <c r="N120" s="10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O120" s="73"/>
       <c r="P120" s="73" t="s">
@@ -13390,7 +15391,7 @@
       <c r="L121" s="73"/>
       <c r="M121" s="73"/>
       <c r="N121" s="10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O121" s="73"/>
       <c r="P121" s="73" t="s">
@@ -13434,7 +15435,7 @@
       <c r="L122" s="73"/>
       <c r="M122" s="73"/>
       <c r="N122" s="10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O122" s="73"/>
       <c r="P122" s="73" t="s">
@@ -13478,7 +15479,7 @@
       <c r="L123" s="73"/>
       <c r="M123" s="73"/>
       <c r="N123" s="10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O123" s="73"/>
       <c r="P123" s="73" t="s">
@@ -13522,7 +15523,7 @@
       <c r="L124" s="73"/>
       <c r="M124" s="73"/>
       <c r="N124" s="10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O124" s="73"/>
       <c r="P124" s="73" t="s">
@@ -13566,7 +15567,7 @@
       <c r="L125" s="73"/>
       <c r="M125" s="73"/>
       <c r="N125" s="10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O125" s="73"/>
       <c r="P125" s="73" t="s">
@@ -13610,7 +15611,7 @@
       <c r="L126" s="73"/>
       <c r="M126" s="73"/>
       <c r="N126" s="10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O126" s="73"/>
       <c r="P126" s="73" t="s">
@@ -13786,7 +15787,7 @@
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="104" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="112">
@@ -14369,6 +16370,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A116:R116"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="D118:D120"/>
+    <mergeCell ref="E118:E120"/>
+    <mergeCell ref="F118:F120"/>
     <mergeCell ref="A107:R107"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A44:R44"/>
@@ -14381,13 +16389,6 @@
     <mergeCell ref="D96:D98"/>
     <mergeCell ref="C96:C98"/>
     <mergeCell ref="B96:B98"/>
-    <mergeCell ref="A116:R116"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="C118:C120"/>
-    <mergeCell ref="D118:D120"/>
-    <mergeCell ref="E118:E120"/>
-    <mergeCell ref="F118:F120"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J128 J134:J200 D130:D134">
     <cfRule type="cellIs" dxfId="39" priority="2" stopIfTrue="1" operator="equal">
@@ -14462,10 +16463,10 @@
         <v>21</v>
       </c>
       <c r="G1" s="96" t="s">
+        <v>752</v>
+      </c>
+      <c r="H1" s="97" t="s">
         <v>753</v>
-      </c>
-      <c r="H1" s="97" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14487,10 +16488,10 @@
         <v>74</v>
       </c>
       <c r="H2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -14512,7 +16513,7 @@
         <v>74</v>
       </c>
       <c r="H3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -14534,10 +16535,10 @@
         <v>74</v>
       </c>
       <c r="H4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -14559,7 +16560,7 @@
         <v>74</v>
       </c>
       <c r="H5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14581,7 +16582,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -14606,12 +16607,12 @@
         <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="153" t="s">
+      <c r="A10" s="190" t="s">
         <v>487</v>
       </c>
       <c r="B10" s="27" t="s">
@@ -14620,7 +16621,7 @@
       <c r="C10" s="27" t="s">
         <v>489</v>
       </c>
-      <c r="D10" s="155" t="s">
+      <c r="D10" s="192" t="s">
         <v>490</v>
       </c>
       <c r="E10" s="89" t="s">
@@ -14631,18 +16632,18 @@
         <v>74</v>
       </c>
       <c r="H10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="154"/>
+      <c r="A11" s="191"/>
       <c r="B11" s="32" t="s">
         <v>491</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>492</v>
       </c>
-      <c r="D11" s="156"/>
+      <c r="D11" s="193"/>
       <c r="E11" s="90" t="s">
         <v>74</v>
       </c>
@@ -14651,12 +16652,12 @@
         <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="157" t="s">
+      <c r="A13" s="194" t="s">
         <v>493</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -14665,7 +16666,7 @@
       <c r="C13" s="27" t="s">
         <v>495</v>
       </c>
-      <c r="D13" s="155" t="s">
+      <c r="D13" s="192" t="s">
         <v>496</v>
       </c>
       <c r="E13" s="89" t="s">
@@ -14676,18 +16677,18 @@
         <v>74</v>
       </c>
       <c r="H13" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="158"/>
+      <c r="A14" s="195"/>
       <c r="B14" s="32" t="s">
         <v>497</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>498</v>
       </c>
-      <c r="D14" s="159"/>
+      <c r="D14" s="196"/>
       <c r="E14" s="90" t="s">
         <v>74</v>
       </c>
@@ -14696,7 +16697,7 @@
         <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -14721,7 +16722,7 @@
         <v>74</v>
       </c>
       <c r="H16" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -14746,7 +16747,7 @@
         <v>74</v>
       </c>
       <c r="H18" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14768,7 +16769,7 @@
         <v>74</v>
       </c>
       <c r="H19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14790,7 +16791,7 @@
         <v>74</v>
       </c>
       <c r="H20" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14812,7 +16813,7 @@
         <v>74</v>
       </c>
       <c r="H21" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -14837,7 +16838,7 @@
         <v>74</v>
       </c>
       <c r="H23" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -14859,7 +16860,7 @@
         <v>74</v>
       </c>
       <c r="H24" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -14881,7 +16882,7 @@
         <v>74</v>
       </c>
       <c r="H25" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14903,7 +16904,7 @@
         <v>74</v>
       </c>
       <c r="H26" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -14926,7 +16927,7 @@
         <v>74</v>
       </c>
       <c r="H28" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -14948,11 +16949,11 @@
         <v>74</v>
       </c>
       <c r="H29" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="160" t="s">
+      <c r="A30" s="197" t="s">
         <v>534</v>
       </c>
       <c r="B30" s="14" t="s">
@@ -14970,11 +16971,11 @@
         <v>74</v>
       </c>
       <c r="H30" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="161"/>
+      <c r="A31" s="198"/>
       <c r="B31" s="14" t="s">
         <v>536</v>
       </c>
@@ -14990,7 +16991,7 @@
         <v>74</v>
       </c>
       <c r="H31" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15014,7 +17015,7 @@
         <v>74</v>
       </c>
       <c r="H32" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.25">
@@ -15056,7 +17057,7 @@
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D39" s="113" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E39" s="72"/>
       <c r="F39" s="112">
@@ -15137,7 +17138,7 @@
   <dimension ref="A1:X1031"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
@@ -15155,18 +17156,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="199" t="s">
         <v>669</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="162" t="s">
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="199" t="s">
         <v>710</v>
       </c>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
       <c r="I1" s="49"/>
       <c r="J1" s="49"/>
       <c r="K1" s="49"/>
@@ -15210,7 +17211,7 @@
         <v>592</v>
       </c>
       <c r="I2" s="95" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J2" s="51"/>
       <c r="K2" s="51"/>
@@ -15250,7 +17251,7 @@
       </c>
       <c r="H3" s="53"/>
       <c r="I3" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J3" s="55"/>
       <c r="K3" s="55"/>
@@ -15290,7 +17291,7 @@
       </c>
       <c r="H4" s="53"/>
       <c r="I4" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J4" s="55"/>
       <c r="K4" s="55"/>
@@ -15330,7 +17331,7 @@
       </c>
       <c r="H5" s="53"/>
       <c r="I5" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J5" s="55"/>
       <c r="K5" s="55"/>
@@ -15370,7 +17371,7 @@
       </c>
       <c r="H6" s="53"/>
       <c r="I6" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J6" s="55"/>
       <c r="K6" s="55"/>
@@ -15410,7 +17411,7 @@
       </c>
       <c r="H7" s="53"/>
       <c r="I7" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J7" s="55"/>
       <c r="K7" s="55"/>
@@ -15450,7 +17451,7 @@
       </c>
       <c r="H8" s="53"/>
       <c r="I8" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J8" s="55"/>
       <c r="K8" s="55"/>
@@ -15490,7 +17491,7 @@
       </c>
       <c r="H9" s="53"/>
       <c r="I9" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J9" s="55"/>
       <c r="K9" s="55"/>
@@ -15530,7 +17531,7 @@
       </c>
       <c r="H10" s="53"/>
       <c r="I10" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J10" s="55"/>
       <c r="K10" s="55"/>
@@ -15570,7 +17571,7 @@
       </c>
       <c r="H11" s="53"/>
       <c r="I11" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J11" s="55"/>
       <c r="K11" s="55"/>
@@ -15610,7 +17611,7 @@
       </c>
       <c r="H12" s="53"/>
       <c r="I12" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J12" s="55"/>
       <c r="K12" s="55"/>
@@ -15650,7 +17651,7 @@
       </c>
       <c r="H13" s="53"/>
       <c r="I13" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J13" s="55"/>
       <c r="K13" s="55"/>
@@ -15690,7 +17691,7 @@
       </c>
       <c r="H14" s="53"/>
       <c r="I14" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J14" s="55"/>
       <c r="K14" s="55"/>
@@ -15730,7 +17731,7 @@
       </c>
       <c r="H15" s="53"/>
       <c r="I15" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J15" s="55"/>
       <c r="K15" s="55"/>
@@ -15770,7 +17771,7 @@
       </c>
       <c r="H16" s="53"/>
       <c r="I16" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J16" s="55"/>
       <c r="K16" s="55"/>
@@ -15810,7 +17811,7 @@
       </c>
       <c r="H17" s="53"/>
       <c r="I17" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J17" s="55"/>
       <c r="K17" s="55"/>
@@ -15850,7 +17851,7 @@
       </c>
       <c r="H18" s="53"/>
       <c r="I18" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J18" s="55"/>
       <c r="K18" s="55"/>
@@ -15890,7 +17891,7 @@
       </c>
       <c r="H19" s="53"/>
       <c r="I19" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J19" s="55"/>
       <c r="K19" s="55"/>
@@ -15930,7 +17931,7 @@
       </c>
       <c r="H20" s="53"/>
       <c r="I20" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J20" s="55"/>
       <c r="K20" s="55"/>
@@ -15970,7 +17971,7 @@
       </c>
       <c r="H21" s="53"/>
       <c r="I21" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J21" s="55"/>
       <c r="K21" s="55"/>
@@ -16010,7 +18011,7 @@
       </c>
       <c r="H22" s="53"/>
       <c r="I22" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J22" s="55"/>
       <c r="K22" s="55"/>
@@ -16050,7 +18051,7 @@
       </c>
       <c r="H23" s="53"/>
       <c r="I23" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J23" s="55"/>
       <c r="K23" s="55"/>
@@ -16090,7 +18091,7 @@
       </c>
       <c r="H24" s="53"/>
       <c r="I24" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J24" s="55"/>
       <c r="K24" s="55"/>
@@ -16130,7 +18131,7 @@
       </c>
       <c r="H25" s="53"/>
       <c r="I25" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J25" s="55"/>
       <c r="K25" s="55"/>
@@ -16170,7 +18171,7 @@
       </c>
       <c r="H26" s="53"/>
       <c r="I26" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J26" s="55"/>
       <c r="K26" s="55"/>
@@ -16210,7 +18211,7 @@
       </c>
       <c r="H27" s="53"/>
       <c r="I27" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J27" s="55"/>
       <c r="K27" s="55"/>
@@ -16250,7 +18251,7 @@
       </c>
       <c r="H28" s="53"/>
       <c r="I28" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J28" s="55"/>
       <c r="K28" s="55"/>
@@ -16290,7 +18291,7 @@
       </c>
       <c r="H29" s="53"/>
       <c r="I29" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J29" s="55"/>
       <c r="K29" s="55"/>
@@ -16330,7 +18331,7 @@
       </c>
       <c r="H30" s="53"/>
       <c r="I30" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J30" s="55"/>
       <c r="K30" s="55"/>
@@ -16370,7 +18371,7 @@
       </c>
       <c r="H31" s="53"/>
       <c r="I31" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J31" s="55"/>
       <c r="K31" s="55"/>
@@ -16410,7 +18411,7 @@
       </c>
       <c r="H32" s="53"/>
       <c r="I32" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J32" s="55"/>
       <c r="K32" s="55"/>
@@ -16450,7 +18451,7 @@
       </c>
       <c r="H33" s="53"/>
       <c r="I33" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J33" s="55"/>
       <c r="K33" s="55"/>
@@ -16488,7 +18489,7 @@
       <c r="G34" s="53"/>
       <c r="H34" s="53"/>
       <c r="I34" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J34" s="55"/>
       <c r="K34" s="55"/>
@@ -16526,7 +18527,7 @@
       <c r="G35" s="53"/>
       <c r="H35" s="53"/>
       <c r="I35" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J35" s="55"/>
       <c r="K35" s="55"/>
@@ -16564,7 +18565,7 @@
       <c r="G36" s="53"/>
       <c r="H36" s="53"/>
       <c r="I36" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J36" s="55"/>
       <c r="K36" s="55"/>
@@ -16602,7 +18603,7 @@
       <c r="G37" s="53"/>
       <c r="H37" s="53"/>
       <c r="I37" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J37" s="55"/>
       <c r="K37" s="55"/>
@@ -16640,7 +18641,7 @@
       <c r="G38" s="53"/>
       <c r="H38" s="53"/>
       <c r="I38" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J38" s="55"/>
       <c r="K38" s="55"/>
@@ -16678,7 +18679,7 @@
       <c r="G39" s="53"/>
       <c r="H39" s="53"/>
       <c r="I39" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J39" s="55"/>
       <c r="K39" s="55"/>
@@ -16716,7 +18717,7 @@
       <c r="G40" s="53"/>
       <c r="H40" s="53"/>
       <c r="I40" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J40" s="55"/>
       <c r="K40" s="55"/>
@@ -16742,7 +18743,7 @@
         <v>606</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D41" s="53" t="s">
         <v>74</v>
@@ -16754,7 +18755,7 @@
       <c r="G41" s="53"/>
       <c r="H41" s="53"/>
       <c r="I41" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J41" s="55"/>
       <c r="K41" s="55"/>
@@ -16780,7 +18781,7 @@
         <v>606</v>
       </c>
       <c r="C42" s="66" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D42" s="53" t="s">
         <v>74</v>
@@ -16792,7 +18793,7 @@
       <c r="G42" s="53"/>
       <c r="H42" s="53"/>
       <c r="I42" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J42" s="55"/>
       <c r="K42" s="55"/>
@@ -16812,13 +18813,13 @@
     </row>
     <row r="43" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A43" s="52" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B43" s="53" t="s">
         <v>606</v>
       </c>
       <c r="C43" s="66" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D43" s="53" t="s">
         <v>74</v>
@@ -16830,7 +18831,7 @@
       <c r="G43" s="53"/>
       <c r="H43" s="53"/>
       <c r="I43" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J43" s="55"/>
       <c r="K43" s="55"/>
@@ -16850,13 +18851,13 @@
     </row>
     <row r="44" spans="1:24" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B44" s="53" t="s">
         <v>606</v>
       </c>
       <c r="C44" s="66" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D44" s="53" t="s">
         <v>74</v>
@@ -16868,7 +18869,7 @@
       <c r="G44" s="53"/>
       <c r="H44" s="53"/>
       <c r="I44" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J44" s="55"/>
       <c r="K44" s="55"/>
@@ -16888,13 +18889,13 @@
     </row>
     <row r="45" spans="1:24" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A45" s="52" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B45" s="53" t="s">
         <v>606</v>
       </c>
       <c r="C45" s="66" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D45" s="53" t="s">
         <v>74</v>
@@ -16906,7 +18907,7 @@
       <c r="G45" s="53"/>
       <c r="H45" s="53"/>
       <c r="I45" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J45" s="55"/>
       <c r="K45" s="55"/>
@@ -16926,13 +18927,13 @@
     </row>
     <row r="46" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B46" s="53" t="s">
         <v>606</v>
       </c>
       <c r="C46" s="66" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D46" s="53" t="s">
         <v>74</v>
@@ -16944,7 +18945,7 @@
       <c r="G46" s="53"/>
       <c r="H46" s="53"/>
       <c r="I46" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J46" s="55"/>
       <c r="K46" s="55"/>
@@ -16964,7 +18965,7 @@
     </row>
     <row r="47" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A47" s="52" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B47" s="53" t="s">
         <v>606</v>
@@ -16982,7 +18983,7 @@
       <c r="G47" s="53"/>
       <c r="H47" s="53"/>
       <c r="I47" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J47" s="55"/>
       <c r="K47" s="55"/>
@@ -17182,7 +19183,7 @@
       <c r="A54" s="49"/>
       <c r="B54" s="49"/>
       <c r="C54" s="114" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D54" s="102">
         <f>COUNTIF(D2:I49,"=TC Created")</f>
@@ -17241,7 +19242,7 @@
       <c r="C56" s="49"/>
       <c r="D56" s="49"/>
       <c r="E56" s="128" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F56" s="49"/>
       <c r="G56" s="49"/>
@@ -42680,7 +44681,9 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -42709,7 +44712,7 @@
         <v>15</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>21</v>
@@ -42722,7 +44725,7 @@
       <c r="B2" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="201" t="s">
         <v>721</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -42745,31 +44748,31 @@
       <c r="B3" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="201" t="s">
         <v>720</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>722</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>353</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="115" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>726</v>
+      <c r="C4" s="201" t="s">
+        <v>268</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>723</v>
@@ -42781,18 +44784,18 @@
         <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="115" t="s">
+        <v>759</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="201" t="s">
         <v>761</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>762</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>723</v>
@@ -42807,12 +44810,12 @@
     </row>
     <row r="6" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" s="115" t="s">
+        <v>762</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="201" t="s">
         <v>720</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -42830,13 +44833,13 @@
     </row>
     <row r="7" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="115" t="s">
+        <v>764</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="201" t="s">
         <v>766</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>767</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>722</v>
@@ -42853,13 +44856,13 @@
     </row>
     <row r="8" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A8" s="115" t="s">
+        <v>767</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>769</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>770</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>722</v>
@@ -42876,13 +44879,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="115" t="s">
+        <v>770</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>771</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>772</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>723</v>
@@ -42897,13 +44900,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="115" t="s">
+        <v>772</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>774</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>775</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>723</v>
@@ -42918,24 +44921,26 @@
     </row>
     <row r="11" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="115" t="s">
+        <v>775</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>776</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>777</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>268</v>
+        <v>720</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>353</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>353</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>796</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42969,18 +44974,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="199" t="s">
         <v>669</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="162" t="s">
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="199" t="s">
         <v>710</v>
       </c>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
       <c r="I1" s="49"/>
       <c r="J1" s="49"/>
       <c r="K1" s="49"/>
@@ -43024,7 +45029,7 @@
         <v>592</v>
       </c>
       <c r="I2" s="95" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J2" s="51"/>
       <c r="K2" s="51"/>
@@ -43053,7 +45058,7 @@
         <v>630</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E3" s="53" t="s">
         <v>595</v>
@@ -43066,7 +45071,7 @@
         <v>714</v>
       </c>
       <c r="I3" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J3" s="55"/>
       <c r="K3" s="55"/>
@@ -43095,7 +45100,7 @@
         <v>629</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E4" s="53" t="s">
         <v>595</v>
@@ -43108,7 +45113,7 @@
         <v>714</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J4" s="55"/>
       <c r="K4" s="55"/>
@@ -43137,7 +45142,7 @@
         <v>631</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E5" s="53" t="s">
         <v>595</v>
@@ -43150,7 +45155,7 @@
         <v>714</v>
       </c>
       <c r="I5" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J5" s="55"/>
       <c r="K5" s="55"/>
@@ -43179,7 +45184,7 @@
         <v>666</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E6" s="53" t="s">
         <v>595</v>
@@ -43192,7 +45197,7 @@
         <v>714</v>
       </c>
       <c r="I6" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J6" s="55"/>
       <c r="K6" s="55"/>
@@ -43212,7 +45217,7 @@
     </row>
     <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B7" s="53" t="s">
         <v>606</v>
@@ -43221,7 +45226,7 @@
         <v>233</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E7" s="53" t="s">
         <v>595</v>
@@ -43230,7 +45235,7 @@
       <c r="G7" s="53"/>
       <c r="H7" s="53"/>
       <c r="I7" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J7" s="55"/>
       <c r="K7" s="55"/>
@@ -43430,7 +45435,7 @@
       <c r="A14" s="49"/>
       <c r="B14" s="49"/>
       <c r="C14" s="114" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D14" s="102">
         <f>COUNTIF(D2:I9,"=TC Created")</f>
@@ -43489,7 +45494,7 @@
       <c r="C16" s="49"/>
       <c r="D16" s="49"/>
       <c r="E16" s="49" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F16" s="49"/>
       <c r="G16" s="49"/>
@@ -68922,21 +70927,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010003819FAC8510934DA3D409E758E559DE" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6dd55a99e26c1a97ef242eb3130577ec">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="83c6f2b28295265639c71d5b3cc80304">
     <xsd:element name="properties">
@@ -69050,17 +71040,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B843B6DC-018E-4AFC-BCFB-CDC9B7E937FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BD14BD4-4E7E-4ED9-AD76-2B460D9D3E92}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -69074,17 +71080,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BD14BD4-4E7E-4ED9-AD76-2B460D9D3E92}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B843B6DC-018E-4AFC-BCFB-CDC9B7E937FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>